--- a/data/trans_dic/P22$concerEmp-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerEmp-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,26</t>
+          <t>0,8; 2,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,77</t>
+          <t>0,08; 0,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,47 +740,47 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,19</t>
+          <t>0,0; 1,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,52</t>
+          <t>0,0; 0,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,33</t>
+          <t>0,0; 0,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,45</t>
+          <t>0,0; 0,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,28</t>
+          <t>0,0; 0,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,12</t>
+          <t>0,41; 1,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,38</t>
+          <t>0,04; 0,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,2</t>
+          <t>0,0; 0,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,44</t>
+          <t>0,0; 0,43</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 3,41</t>
+          <t>1,84; 3,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,1</t>
+          <t>0,92; 2,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,95</t>
+          <t>0,22; 1,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,92</t>
+          <t>0,73; 1,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,85</t>
+          <t>0,15; 0,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,57</t>
+          <t>0,06; 0,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,64</t>
+          <t>0,11; 0,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,81</t>
+          <t>0,28; 0,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,98</t>
+          <t>1,13; 2,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,25</t>
+          <t>0,6; 1,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,7</t>
+          <t>0,24; 0,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 1,23</t>
+          <t>0,61; 1,24</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,74</t>
+          <t>1,82; 4,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,45</t>
+          <t>0,63; 3,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,18</t>
+          <t>0,66; 3,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,6</t>
+          <t>1,58; 4,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,63</t>
+          <t>1,15; 3,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,37</t>
+          <t>0,83; 3,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,27</t>
+          <t>0,37; 2,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,86</t>
+          <t>0,92; 3,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,64</t>
+          <t>1,77; 3,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,85</t>
+          <t>0,91; 2,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,24</t>
+          <t>0,77; 2,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,34</t>
+          <t>1,51; 3,32</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,85</t>
+          <t>1,8; 2,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,58</t>
+          <t>0,79; 1,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,91</t>
+          <t>0,33; 0,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,88</t>
+          <t>0,93; 1,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,85</t>
+          <t>0,33; 0,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,61</t>
+          <t>0,2; 0,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,59</t>
+          <t>0,19; 0,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 0,93</t>
+          <t>0,43; 0,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,7</t>
+          <t>1,12; 1,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,97</t>
+          <t>0,55; 1,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,69</t>
+          <t>0,31; 0,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,26</t>
+          <t>0,75; 1,27</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Seguro Médico concertado por su empresa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14266</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2866</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1764</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16031</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3852</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1457</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8229; 23548</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>800; 8668</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1898</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5732</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6629</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5646</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3572</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2035</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>9542; 26938</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1028; 9394</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3743</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5501</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>42581</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>27994</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10581</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>28647</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6477</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3956</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6058</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11041</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>49058</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>31950</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16639</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>39688</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>31090; 56537</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17995; 41363</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4647; 20952</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>16702; 43802</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2305; 13182</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>997; 9838</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2107; 13052</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6373; 19036</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>37031; 67083</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>22342; 46734</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>9548; 27609</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>27698; 56256</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16488</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7633</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8567</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17882</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9977</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8135</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5845</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11169</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>26464</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>15767</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>14411</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>29051</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10060; 26965</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3049; 16203</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3621; 17378</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10242; 29074</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5487; 17981</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3818; 14914</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2031; 12315</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6095; 19899</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18196; 39489</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8571; 26280</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8421; 25324</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19771; 43353</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>73335</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>38493</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>19148</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>47582</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18219</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>13076</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>12787</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>22614</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>91553</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>51569</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>31935</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>70196</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>58910; 91539</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>27025; 54811</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>11208; 32046</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>32089; 65956</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11173; 28937</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7282; 22988</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6724; 20869</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>15521; 33253</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>74200; 112004</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>38483; 70393</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>21442; 45342</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>53027; 90468</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>